--- a/PMSNM/Data/input.xlsx
+++ b/PMSNM/Data/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07163644-4C1C-42C7-94F2-42B0D5BA1A5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F4CDF-E31E-4E5D-93A1-6457197473C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PM_Data" sheetId="1" r:id="rId1"/>
@@ -601,9 +601,6 @@
     <t>mxoneCSP</t>
   </si>
   <si>
-    <t>https://10.211.162.195</t>
-  </si>
-  <si>
     <t>createMS</t>
   </si>
   <si>
@@ -614,6 +611,9 @@
   </si>
   <si>
     <t>http://10.211.162.111</t>
+  </si>
+  <si>
+    <t>http://10.211.162.195</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F8F62-6D6D-458E-B786-F6699345E16C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1129,7 +1129,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -1166,7 +1166,7 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
         <v>49</v>
@@ -1186,7 +1186,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -2031,13 +2031,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>191</v>
+      </c>
+      <c r="B69" t="s">
         <v>192</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>193</v>
-      </c>
-      <c r="C69" t="s">
-        <v>194</v>
       </c>
       <c r="F69" t="s">
         <v>68</v>
@@ -2067,7 +2067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66A309F-2330-4A45-94F3-8A7CE957A5B9}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2106,7 +2106,7 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>

--- a/PMSNM/Data/input.xlsx
+++ b/PMSNM/Data/input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F4CDF-E31E-4E5D-93A1-6457197473C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DB9D3ED3-9D44-4B5A-8DCE-926BBE4A15BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19440" windowHeight="11060" tabRatio="833" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PM_Data" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="PMLogin_Data" sheetId="9" r:id="rId6"/>
     <sheet name="Users" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1090,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F8F62-6D6D-458E-B786-F6699345E16C}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
